--- a/汽柴煤油2.0/eta/FU-BU_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/FU-BU_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-188.7</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-178.4</v>
+        <v>-170</v>
       </c>
       <c r="C3" t="n">
-        <v>-137.6</v>
+        <v>-90.8</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>-244.6</v>
       </c>
       <c r="C4" t="n">
-        <v>-220.4</v>
+        <v>-260.7</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>-322.6</v>
       </c>
       <c r="C5" t="n">
-        <v>-322.5</v>
+        <v>-322.6</v>
       </c>
     </row>
     <row r="6">
@@ -549,7 +549,7 @@
         <v>-49.8</v>
       </c>
       <c r="C9" t="n">
-        <v>-50</v>
+        <v>-49.9</v>
       </c>
     </row>
     <row r="10">
@@ -601,7 +601,7 @@
         <v>34.1</v>
       </c>
       <c r="C13" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="14">
@@ -627,7 +627,7 @@
         <v>145.1</v>
       </c>
       <c r="C15" t="n">
-        <v>145</v>
+        <v>144.9</v>
       </c>
     </row>
     <row r="16">
@@ -692,7 +692,7 @@
         <v>137.5</v>
       </c>
       <c r="C20" t="n">
-        <v>137.4</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="21">
@@ -718,7 +718,7 @@
         <v>-18.2</v>
       </c>
       <c r="C22" t="n">
-        <v>-18</v>
+        <v>-18.1</v>
       </c>
     </row>
     <row r="23">
